--- a/biology/Botanique/Domenico_Vigna/Domenico_Vigna.xlsx
+++ b/biology/Botanique/Domenico_Vigna/Domenico_Vigna.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Domenico Vigna (mort en 1647) est un botaniste italien du XVIIe siècle.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Domenico Vigna fut directeur du jardin botanique de Pise en 1616-1617 et en 1632-1634.
-Le genre Vigna (Fabaceae), qu'il avait distingué de Phaseolus[1], lui a été dédié par Gaetano Savi en 1824.
+Le genre Vigna (Fabaceae), qu'il avait distingué de Phaseolus, lui a été dédié par Gaetano Savi en 1824.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Animadversiones, sive Observationes in libros de Historia et de causis plantarum Theophrasti, Apud S. Marchettum et C. Massinum, 1625, 118 p.</t>
         </is>
